--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47486.83904511142</v>
+        <v>-58840.8403926848</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31105090.35455446</v>
+        <v>31115561.68157384</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19996124.25941982</v>
+        <v>19973233.01166132</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>816079.8302888956</v>
+        <v>826253.9693097945</v>
       </c>
     </row>
     <row r="11">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.909529087063915</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T18" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="U18" t="n">
-        <v>7.909529087063913</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="E19" t="n">
-        <v>7.909529087063913</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="S19" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="T20" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.909529087063913</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="T21" t="n">
-        <v>7.909529087063915</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="U21" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="X21" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="V22" t="n">
-        <v>7.909529087063915</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="X22" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,61 +2320,61 @@
         <v>23.50971295904438</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>23.50971295904438</v>
       </c>
-      <c r="G23" t="n">
-        <v>23.50971295904438</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>20.70735517432629</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>23.50971295904438</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>23.50971295904438</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="X26" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>20.70735517432628</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>23.50971295904438</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2721,58 +2721,58 @@
         <v>23.50971295904438</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>23.50971295904438</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>20.70735517432629</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,17 +2791,17 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>23.50971295904438</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
         <v>23.50971295904438</v>
       </c>
-      <c r="D29" t="n">
-        <v>20.70735517432628</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>23.50971295904438</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>23.50971295904438</v>
@@ -3006,7 +3006,7 @@
         <v>23.50971295904438</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="C32" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G32" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="U33" t="n">
-        <v>23.50971295904437</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="V33" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="W33" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="W34" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="X34" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,11 +3277,11 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>20.70735517432628</v>
       </c>
-      <c r="G35" t="n">
-        <v>23.50971295904437</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="T35" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="G36" t="n">
-        <v>20.70735517432628</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="F37" t="n">
-        <v>23.50971295904437</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22.50923875973921</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="E38" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>21.70782937363144</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>20.70735517432628</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G39" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,52 +3672,52 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>23.50971295904438</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>23.50971295904438</v>
+      </c>
+      <c r="T40" t="n">
         <v>20.70735517432628</v>
       </c>
-      <c r="G40" t="n">
-        <v>23.50971295904437</v>
-      </c>
-      <c r="H40" t="n">
-        <v>23.50971295904437</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,61 +3754,61 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>20.70735517432629</v>
+      </c>
+      <c r="Y41" t="n">
         <v>23.50971295904438</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>20.70735517432629</v>
-      </c>
-      <c r="W41" t="n">
-        <v>23.50971295904438</v>
-      </c>
-      <c r="X41" t="n">
-        <v>23.50971295904438</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="F42" t="n">
-        <v>20.70735517432628</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G42" t="n">
         <v>23.50971295904438</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,61 +3912,61 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>23.50971295904438</v>
       </c>
-      <c r="H43" t="n">
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>23.50971295904438</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
+      <c r="Y43" t="n">
         <v>23.50971295904438</v>
-      </c>
-      <c r="U43" t="n">
-        <v>20.70735517432628</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>21.18437155743263</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="T44" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="V44" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.687197175899119</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="F45" t="n">
-        <v>27.10214433847837</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="G45" t="n">
-        <v>27.10214433847837</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="H45" t="n">
-        <v>27.10214433847837</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>23.87156873333175</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>27.10214433847837</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>20.70735517432629</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.87156873333175</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.91975062245194</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="C17" t="n">
-        <v>35.91975062245194</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="D17" t="n">
-        <v>35.91975062245194</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E17" t="n">
-        <v>35.91975062245194</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F17" t="n">
-        <v>27.93032730218536</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G17" t="n">
-        <v>18.85968320560659</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H17" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7183950124490389</v>
+        <v>5.219099475992277</v>
       </c>
       <c r="L17" t="n">
-        <v>3.29276997143486</v>
+        <v>15.88227649088179</v>
       </c>
       <c r="M17" t="n">
-        <v>11.30354172692354</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N17" t="n">
-        <v>20.1936800059804</v>
+        <v>50.929523276461</v>
       </c>
       <c r="O17" t="n">
-        <v>27.02961234339509</v>
+        <v>65.79354395927301</v>
       </c>
       <c r="P17" t="n">
-        <v>27.02961234339509</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q17" t="n">
-        <v>27.02961234339509</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R17" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S17" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T17" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U17" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="V17" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="W17" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="X17" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.789039109027813</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="C18" t="n">
-        <v>9.789039109027813</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="D18" t="n">
-        <v>9.789039109027813</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="E18" t="n">
-        <v>9.789039109027813</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="F18" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G18" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7183950124490389</v>
+        <v>5.886021080118655</v>
       </c>
       <c r="L18" t="n">
-        <v>8.2458079501616</v>
+        <v>19.36817474787379</v>
       </c>
       <c r="M18" t="n">
-        <v>17.13594622921845</v>
+        <v>28.67140894156422</v>
       </c>
       <c r="N18" t="n">
-        <v>22.3593791854106</v>
+        <v>46.70753313916133</v>
       </c>
       <c r="O18" t="n">
-        <v>31.24951746446745</v>
+        <v>62.96599962173946</v>
       </c>
       <c r="P18" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R18" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S18" t="n">
-        <v>26.84910652587317</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T18" t="n">
-        <v>17.77846242929439</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="U18" t="n">
-        <v>9.789039109027813</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="V18" t="n">
-        <v>9.789039109027813</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="W18" t="n">
-        <v>9.789039109027813</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="X18" t="n">
-        <v>9.789039109027813</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.789039109027813</v>
+        <v>36.06856792907901</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.707818332715618</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="C19" t="n">
-        <v>8.707818332715618</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="D19" t="n">
-        <v>8.707818332715618</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7183950124490389</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7183950124490389</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="M19" t="n">
-        <v>9.608533291505895</v>
+        <v>37.52971297681823</v>
       </c>
       <c r="N19" t="n">
-        <v>9.608533291505895</v>
+        <v>55.56583717441534</v>
       </c>
       <c r="O19" t="n">
-        <v>18.13947406433823</v>
+        <v>55.56583717441534</v>
       </c>
       <c r="P19" t="n">
-        <v>27.02961234339509</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R19" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="S19" t="n">
-        <v>26.84910652587317</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="T19" t="n">
-        <v>26.84910652587317</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="U19" t="n">
-        <v>26.84910652587317</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="V19" t="n">
-        <v>17.77846242929439</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="W19" t="n">
-        <v>8.707818332715618</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="X19" t="n">
-        <v>8.707818332715618</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.707818332715618</v>
+        <v>17.66623735301829</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.789039109027813</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="C20" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D20" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E20" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F20" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7183950124490389</v>
+        <v>5.219099475992266</v>
       </c>
       <c r="L20" t="n">
-        <v>9.249335785281374</v>
+        <v>15.88227649088181</v>
       </c>
       <c r="M20" t="n">
-        <v>18.13947406433823</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N20" t="n">
-        <v>27.02961234339509</v>
+        <v>50.92952327646103</v>
       </c>
       <c r="O20" t="n">
-        <v>35.91975062245194</v>
+        <v>65.79354395927301</v>
       </c>
       <c r="P20" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R20" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S20" t="n">
-        <v>35.91975062245194</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="T20" t="n">
-        <v>26.84910652587317</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="U20" t="n">
-        <v>26.84910652587317</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="V20" t="n">
-        <v>26.84910652587317</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="W20" t="n">
-        <v>17.77846242929439</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="X20" t="n">
-        <v>9.789039109027813</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.789039109027813</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7183950124490389</v>
+        <v>5.886021080118652</v>
       </c>
       <c r="L21" t="n">
-        <v>8.2458079501616</v>
+        <v>10.63528474396712</v>
       </c>
       <c r="M21" t="n">
-        <v>13.46924090635374</v>
+        <v>28.67140894156423</v>
       </c>
       <c r="N21" t="n">
-        <v>22.3593791854106</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O21" t="n">
-        <v>31.24951746446745</v>
+        <v>62.96599962173947</v>
       </c>
       <c r="P21" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R21" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S21" t="n">
-        <v>35.91975062245194</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="T21" t="n">
-        <v>27.93032730218536</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="U21" t="n">
-        <v>18.85968320560659</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="V21" t="n">
-        <v>18.85968320560659</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="W21" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C22" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D22" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7183950124490389</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J22" t="n">
-        <v>9.249335785281374</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="K22" t="n">
-        <v>9.249335785281374</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="L22" t="n">
-        <v>18.13947406433823</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="M22" t="n">
-        <v>27.02961234339509</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="N22" t="n">
-        <v>27.02961234339509</v>
+        <v>20.0886633670298</v>
       </c>
       <c r="O22" t="n">
-        <v>35.91975062245194</v>
+        <v>36.80098068600623</v>
       </c>
       <c r="P22" t="n">
-        <v>35.91975062245194</v>
+        <v>54.83710488360334</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.91975062245194</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R22" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="S22" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="T22" t="n">
-        <v>35.91975062245194</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="U22" t="n">
-        <v>26.84910652587317</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="V22" t="n">
-        <v>18.85968320560659</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="W22" t="n">
-        <v>18.85968320560659</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="X22" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.789039109027813</v>
+        <v>1.457464581624009</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.37514665095463</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="C23" t="n">
-        <v>49.37514665095463</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="D23" t="n">
-        <v>49.37514665095463</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="E23" t="n">
-        <v>49.37514665095463</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="F23" t="n">
-        <v>25.62796184383909</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G23" t="n">
         <v>1.880777036723551</v>
@@ -5998,16 +5998,16 @@
         <v>22.51986039522948</v>
       </c>
       <c r="M23" t="n">
-        <v>43.35950445951397</v>
+        <v>43.35950445951396</v>
       </c>
       <c r="N23" t="n">
         <v>65.28609961349599</v>
       </c>
       <c r="O23" t="n">
-        <v>83.82378169965438</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P23" t="n">
-        <v>94.03885183617753</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="Q23" t="n">
         <v>94.03885183617753</v>
@@ -6016,25 +6016,25 @@
         <v>94.03885183617753</v>
       </c>
       <c r="S23" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="T23" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="U23" t="n">
-        <v>73.12233145807016</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="V23" t="n">
-        <v>73.12233145807016</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="W23" t="n">
-        <v>73.12233145807016</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="X23" t="n">
-        <v>73.12233145807016</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.12233145807016</v>
+        <v>70.29166702906198</v>
       </c>
     </row>
     <row r="24">
@@ -6047,13 +6047,13 @@
         <v>49.37514665095463</v>
       </c>
       <c r="C24" t="n">
+        <v>49.37514665095463</v>
+      </c>
+      <c r="D24" t="n">
         <v>25.62796184383909</v>
       </c>
-      <c r="D24" t="n">
-        <v>1.880777036723551</v>
-      </c>
       <c r="E24" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="F24" t="n">
         <v>1.880777036723551</v>
@@ -6071,13 +6071,13 @@
         <v>1.880777036723551</v>
       </c>
       <c r="K24" t="n">
-        <v>1.880777036723551</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L24" t="n">
-        <v>17.89592671708687</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M24" t="n">
-        <v>39.73034208625465</v>
+        <v>39.59522696312118</v>
       </c>
       <c r="N24" t="n">
         <v>62.86984279257511</v>
@@ -6095,19 +6095,19 @@
         <v>94.03885183617753</v>
       </c>
       <c r="S24" t="n">
-        <v>94.03885183617753</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="T24" t="n">
-        <v>94.03885183617753</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="U24" t="n">
-        <v>94.03885183617753</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="V24" t="n">
-        <v>94.03885183617753</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="W24" t="n">
-        <v>70.29166702906198</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="X24" t="n">
         <v>49.37514665095463</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="C25" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="D25" t="n">
         <v>1.880777036723551</v>
@@ -6174,25 +6174,25 @@
         <v>70.29166702906198</v>
       </c>
       <c r="S25" t="n">
-        <v>70.29166702906198</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="T25" t="n">
-        <v>70.29166702906198</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="U25" t="n">
-        <v>70.29166702906198</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="V25" t="n">
-        <v>46.54448222194645</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="W25" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="X25" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="C26" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="D26" t="n">
-        <v>22.79729741483091</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="E26" t="n">
-        <v>22.79729741483091</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="F26" t="n">
-        <v>22.79729741483091</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G26" t="n">
-        <v>22.79729741483091</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H26" t="n">
         <v>1.880777036723551</v>
@@ -6247,7 +6247,7 @@
         <v>94.03885183617751</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.03885183617751</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R26" t="n">
         <v>94.03885183617753</v>
@@ -6262,16 +6262,16 @@
         <v>70.29166702906198</v>
       </c>
       <c r="V26" t="n">
-        <v>70.29166702906198</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="W26" t="n">
-        <v>70.29166702906198</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="X26" t="n">
-        <v>46.54448222194645</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>46.54448222194645</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="C27" t="n">
+        <v>70.29166702906198</v>
+      </c>
+      <c r="D27" t="n">
+        <v>49.37514665095463</v>
+      </c>
+      <c r="E27" t="n">
         <v>25.62796184383909</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.880777036723551</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.880777036723551</v>
       </c>
       <c r="F27" t="n">
         <v>1.880777036723551</v>
@@ -6317,7 +6317,7 @@
         <v>46.04269444771658</v>
       </c>
       <c r="N27" t="n">
-        <v>62.86984279257511</v>
+        <v>69.31731027717052</v>
       </c>
       <c r="O27" t="n">
         <v>81.90393668038415</v>
@@ -6338,19 +6338,19 @@
         <v>94.03885183617753</v>
       </c>
       <c r="U27" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="V27" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="W27" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="X27" t="n">
         <v>70.29166702906198</v>
       </c>
       <c r="Y27" t="n">
-        <v>46.54448222194645</v>
+        <v>70.29166702906198</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.12233145807016</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="C28" t="n">
-        <v>49.37514665095463</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="D28" t="n">
-        <v>25.62796184383909</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="E28" t="n">
         <v>1.880777036723551</v>
@@ -6384,22 +6384,22 @@
         <v>1.880777036723551</v>
       </c>
       <c r="J28" t="n">
-        <v>25.15539286617749</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K28" t="n">
-        <v>25.15539286617749</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="L28" t="n">
+        <v>2.170301745874835</v>
+      </c>
+      <c r="M28" t="n">
         <v>25.44491757532877</v>
       </c>
-      <c r="M28" t="n">
-        <v>48.71953340478271</v>
-      </c>
       <c r="N28" t="n">
-        <v>70.76423600672359</v>
+        <v>27.53665162270678</v>
       </c>
       <c r="O28" t="n">
-        <v>70.76423600672359</v>
+        <v>47.48962017726966</v>
       </c>
       <c r="P28" t="n">
         <v>70.76423600672359</v>
@@ -6408,28 +6408,28 @@
         <v>94.03885183617753</v>
       </c>
       <c r="R28" t="n">
-        <v>73.12233145807016</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S28" t="n">
-        <v>73.12233145807016</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T28" t="n">
-        <v>73.12233145807016</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U28" t="n">
-        <v>73.12233145807016</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="V28" t="n">
-        <v>73.12233145807016</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="W28" t="n">
-        <v>73.12233145807016</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="X28" t="n">
-        <v>73.12233145807016</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.12233145807016</v>
+        <v>49.37514665095463</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>70.29166702906198</v>
+      </c>
+      <c r="C29" t="n">
+        <v>70.29166702906198</v>
+      </c>
+      <c r="D29" t="n">
         <v>46.54448222194645</v>
       </c>
-      <c r="C29" t="n">
-        <v>22.79729741483091</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.880777036723551</v>
-      </c>
       <c r="E29" t="n">
-        <v>1.880777036723551</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="F29" t="n">
-        <v>1.880777036723551</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="G29" t="n">
-        <v>1.880777036723551</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="H29" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I29" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J29" t="n">
         <v>1.880777036723551</v>
@@ -6484,28 +6484,28 @@
         <v>94.03885183617751</v>
       </c>
       <c r="Q29" t="n">
-        <v>94.03885183617753</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="R29" t="n">
-        <v>94.03885183617753</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="S29" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="T29" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="U29" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="V29" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="W29" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="X29" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="Y29" t="n">
         <v>70.29166702906198</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70.29166702906198</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="C30" t="n">
-        <v>49.37514665095463</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="D30" t="n">
-        <v>25.62796184383909</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="E30" t="n">
-        <v>1.880777036723551</v>
+        <v>49.37514665095462</v>
       </c>
       <c r="F30" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="G30" t="n">
-        <v>1.880777036723551</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="H30" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I30" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J30" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K30" t="n">
-        <v>1.880777036723551</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L30" t="n">
-        <v>17.89592671708687</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M30" t="n">
-        <v>39.73034208625465</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N30" t="n">
-        <v>62.86984279257511</v>
+        <v>69.31731027717052</v>
       </c>
       <c r="O30" t="n">
-        <v>81.90393668038415</v>
+        <v>81.90393668038413</v>
       </c>
       <c r="P30" t="n">
-        <v>94.03885183617753</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.03885183617753</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="R30" t="n">
-        <v>94.03885183617753</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="S30" t="n">
-        <v>94.03885183617753</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="T30" t="n">
-        <v>94.03885183617753</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="U30" t="n">
-        <v>94.03885183617753</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="V30" t="n">
-        <v>94.03885183617753</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="W30" t="n">
-        <v>94.03885183617753</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="X30" t="n">
-        <v>94.03885183617753</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="Y30" t="n">
-        <v>70.29166702906198</v>
+        <v>73.12233145807015</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="C31" t="n">
-        <v>22.79729741483091</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="D31" t="n">
-        <v>22.79729741483091</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="E31" t="n">
-        <v>22.79729741483091</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F31" t="n">
-        <v>22.79729741483091</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G31" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H31" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I31" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J31" t="n">
+        <v>1.88077703672355</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.88077703672355</v>
+      </c>
+      <c r="L31" t="n">
         <v>25.15539286617749</v>
       </c>
-      <c r="K31" t="n">
-        <v>25.15539286617749</v>
-      </c>
-      <c r="L31" t="n">
-        <v>48.43000869563143</v>
-      </c>
       <c r="M31" t="n">
-        <v>68.67250195934558</v>
+        <v>47.48962017726964</v>
       </c>
       <c r="N31" t="n">
-        <v>70.76423600672359</v>
+        <v>70.76423600672358</v>
       </c>
       <c r="O31" t="n">
-        <v>70.76423600672359</v>
+        <v>70.76423600672358</v>
       </c>
       <c r="P31" t="n">
-        <v>70.76423600672359</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.03885183617753</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="R31" t="n">
+        <v>94.03885183617751</v>
+      </c>
+      <c r="S31" t="n">
         <v>70.29166702906198</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>46.54448222194645</v>
       </c>
-      <c r="T31" t="n">
-        <v>22.79729741483091</v>
-      </c>
       <c r="U31" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="V31" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="W31" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="X31" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383908</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.29166702906197</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="C32" t="n">
-        <v>49.37514665095461</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="D32" t="n">
         <v>25.62796184383908</v>
@@ -6688,7 +6688,7 @@
         <v>25.62796184383908</v>
       </c>
       <c r="F32" t="n">
-        <v>25.62796184383908</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G32" t="n">
         <v>1.88077703672355</v>
@@ -6706,10 +6706,10 @@
         <v>8.415911685442902</v>
       </c>
       <c r="L32" t="n">
-        <v>22.51986039522947</v>
+        <v>22.51986039522948</v>
       </c>
       <c r="M32" t="n">
-        <v>43.35950445951394</v>
+        <v>43.35950445951396</v>
       </c>
       <c r="N32" t="n">
         <v>65.28609961349599</v>
@@ -6718,34 +6718,34 @@
         <v>83.82378169965436</v>
       </c>
       <c r="P32" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="Q32" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="R32" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="S32" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="T32" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="U32" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="V32" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807015</v>
       </c>
       <c r="W32" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095462</v>
       </c>
       <c r="X32" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095462</v>
       </c>
       <c r="Y32" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095462</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>25.62796184383908</v>
       </c>
       <c r="F33" t="n">
-        <v>1.88077703672355</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="G33" t="n">
         <v>1.88077703672355</v>
@@ -6788,34 +6788,34 @@
         <v>24.2082790785488</v>
       </c>
       <c r="M33" t="n">
-        <v>46.04269444771658</v>
+        <v>39.59522696312116</v>
       </c>
       <c r="N33" t="n">
-        <v>62.86984279257508</v>
+        <v>62.8698427925751</v>
       </c>
       <c r="O33" t="n">
-        <v>81.90393668038412</v>
+        <v>81.90393668038413</v>
       </c>
       <c r="P33" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="R33" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="S33" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="T33" t="n">
-        <v>94.0388518361775</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="U33" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095462</v>
       </c>
       <c r="V33" t="n">
-        <v>46.54448222194644</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="W33" t="n">
         <v>25.62796184383908</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.79729741483091</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="C34" t="n">
-        <v>1.88077703672355</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="D34" t="n">
-        <v>1.88077703672355</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="E34" t="n">
-        <v>1.88077703672355</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="F34" t="n">
         <v>1.88077703672355</v>
@@ -6858,52 +6858,52 @@
         <v>1.88077703672355</v>
       </c>
       <c r="J34" t="n">
-        <v>21.8337455912864</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K34" t="n">
-        <v>45.10836142074033</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L34" t="n">
-        <v>45.39788612989162</v>
+        <v>25.15539286617749</v>
       </c>
       <c r="M34" t="n">
-        <v>68.67250195934555</v>
+        <v>48.43000869563142</v>
       </c>
       <c r="N34" t="n">
-        <v>70.76423600672356</v>
+        <v>70.76423600672358</v>
       </c>
       <c r="O34" t="n">
-        <v>70.76423600672356</v>
+        <v>70.76423600672358</v>
       </c>
       <c r="P34" t="n">
-        <v>70.76423600672356</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="R34" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="S34" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617751</v>
       </c>
       <c r="T34" t="n">
-        <v>94.0388518361775</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="U34" t="n">
-        <v>94.0388518361775</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="V34" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="W34" t="n">
-        <v>70.29166702906197</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="X34" t="n">
-        <v>46.54448222194644</v>
+        <v>22.79729741483092</v>
       </c>
       <c r="Y34" t="n">
-        <v>22.79729741483091</v>
+        <v>22.79729741483092</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.54448222194644</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="C35" t="n">
-        <v>46.54448222194644</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="D35" t="n">
-        <v>46.54448222194644</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="E35" t="n">
-        <v>46.54448222194644</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F35" t="n">
-        <v>25.62796184383908</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H35" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I35" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K35" t="n">
-        <v>8.415911685442902</v>
+        <v>8.415911685442904</v>
       </c>
       <c r="L35" t="n">
         <v>22.51986039522948</v>
@@ -6949,40 +6949,40 @@
         <v>43.35950445951396</v>
       </c>
       <c r="N35" t="n">
-        <v>65.28609961349599</v>
+        <v>65.28609961349601</v>
       </c>
       <c r="O35" t="n">
-        <v>83.82378169965436</v>
+        <v>83.82378169965438</v>
       </c>
       <c r="P35" t="n">
-        <v>94.03885183617751</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q35" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R35" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S35" t="n">
-        <v>94.0388518361775</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="T35" t="n">
-        <v>70.29166702906197</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="U35" t="n">
-        <v>70.29166702906197</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="V35" t="n">
-        <v>70.29166702906197</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="W35" t="n">
-        <v>70.29166702906197</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="X35" t="n">
-        <v>46.54448222194644</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.54448222194644</v>
+        <v>46.54448222194645</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.79729741483091</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="C36" t="n">
-        <v>22.79729741483091</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="D36" t="n">
-        <v>22.79729741483091</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="E36" t="n">
-        <v>22.79729741483091</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="F36" t="n">
-        <v>22.79729741483091</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="G36" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H36" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I36" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K36" t="n">
         <v>8.19312939818548</v>
@@ -7025,43 +7025,43 @@
         <v>24.2082790785488</v>
       </c>
       <c r="M36" t="n">
-        <v>46.04269444771658</v>
+        <v>39.59522696312118</v>
       </c>
       <c r="N36" t="n">
-        <v>69.31731027717052</v>
+        <v>62.86984279257511</v>
       </c>
       <c r="O36" t="n">
-        <v>88.35140416497956</v>
+        <v>81.90393668038415</v>
       </c>
       <c r="P36" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R36" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S36" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T36" t="n">
-        <v>70.29166702906197</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U36" t="n">
-        <v>46.54448222194644</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="V36" t="n">
-        <v>22.79729741483091</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="W36" t="n">
-        <v>22.79729741483091</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="X36" t="n">
-        <v>22.79729741483091</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="Y36" t="n">
-        <v>22.79729741483091</v>
+        <v>46.54448222194645</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.37514665095461</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="C37" t="n">
-        <v>49.37514665095461</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="D37" t="n">
-        <v>49.37514665095461</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="E37" t="n">
-        <v>25.62796184383908</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F37" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G37" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H37" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I37" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J37" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K37" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="L37" t="n">
-        <v>2.170301745874834</v>
+        <v>25.15539286617749</v>
       </c>
       <c r="M37" t="n">
-        <v>25.44491757532877</v>
+        <v>25.99012706742186</v>
       </c>
       <c r="N37" t="n">
-        <v>27.53665162270677</v>
+        <v>28.08186111479987</v>
       </c>
       <c r="O37" t="n">
-        <v>47.48962017726963</v>
+        <v>47.48962017726966</v>
       </c>
       <c r="P37" t="n">
-        <v>70.76423600672356</v>
+        <v>70.76423600672359</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R37" t="n">
-        <v>70.29166702906197</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S37" t="n">
-        <v>70.29166702906197</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T37" t="n">
-        <v>49.37514665095461</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U37" t="n">
-        <v>49.37514665095461</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="V37" t="n">
-        <v>49.37514665095461</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="W37" t="n">
-        <v>49.37514665095461</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="X37" t="n">
-        <v>49.37514665095461</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.37514665095461</v>
+        <v>94.03885183617753</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="C38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="D38" t="n">
-        <v>71.30224702836011</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="E38" t="n">
-        <v>47.55506222124458</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F38" t="n">
-        <v>23.80787741412905</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="G38" t="n">
-        <v>23.80787741412905</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H38" t="n">
-        <v>23.80787741412905</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I38" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J38" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K38" t="n">
-        <v>8.415911685442893</v>
+        <v>8.415911685442904</v>
       </c>
       <c r="L38" t="n">
-        <v>22.51986039522947</v>
+        <v>22.51986039522948</v>
       </c>
       <c r="M38" t="n">
-        <v>43.35950445951397</v>
+        <v>43.35950445951396</v>
       </c>
       <c r="N38" t="n">
-        <v>65.28609961349599</v>
+        <v>65.28609961349601</v>
       </c>
       <c r="O38" t="n">
-        <v>83.82378169965435</v>
+        <v>83.82378169965438</v>
       </c>
       <c r="P38" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q38" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R38" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S38" t="n">
-        <v>94.0388518361775</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="T38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="U38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="V38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="W38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="X38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.0388518361775</v>
+        <v>46.54448222194645</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="C39" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="D39" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="E39" t="n">
-        <v>49.37514665095461</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="F39" t="n">
-        <v>25.62796184383908</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="G39" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H39" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I39" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J39" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K39" t="n">
         <v>8.19312939818548</v>
@@ -7265,40 +7265,40 @@
         <v>46.04269444771658</v>
       </c>
       <c r="N39" t="n">
-        <v>62.86984279257508</v>
+        <v>62.86984279257511</v>
       </c>
       <c r="O39" t="n">
-        <v>81.90393668038412</v>
+        <v>81.90393668038415</v>
       </c>
       <c r="P39" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R39" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S39" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T39" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="U39" t="n">
-        <v>94.0388518361775</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="V39" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="W39" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="X39" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="Y39" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095463</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="C40" t="n">
-        <v>70.29166702906197</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="D40" t="n">
-        <v>70.29166702906197</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="E40" t="n">
-        <v>70.29166702906197</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="F40" t="n">
-        <v>49.37514665095461</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G40" t="n">
-        <v>25.62796184383908</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H40" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I40" t="n">
-        <v>1.88077703672355</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J40" t="n">
-        <v>25.15539286617748</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K40" t="n">
-        <v>25.15539286617748</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="L40" t="n">
-        <v>25.44491757532877</v>
+        <v>2.170301745874835</v>
       </c>
       <c r="M40" t="n">
-        <v>48.71953340478269</v>
+        <v>3.005035947119206</v>
       </c>
       <c r="N40" t="n">
-        <v>71.99414923423663</v>
+        <v>26.27965177657315</v>
       </c>
       <c r="O40" t="n">
-        <v>71.99414923423663</v>
+        <v>49.55426760602708</v>
       </c>
       <c r="P40" t="n">
-        <v>71.99414923423663</v>
+        <v>72.82888343548102</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R40" t="n">
-        <v>94.0388518361775</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S40" t="n">
-        <v>94.0388518361775</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="T40" t="n">
-        <v>94.0388518361775</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="U40" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="V40" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="W40" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="X40" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.29166702906197</v>
+        <v>49.37514665095463</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>25.62796184383909</v>
       </c>
       <c r="D41" t="n">
-        <v>25.62796184383909</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="E41" t="n">
-        <v>25.62796184383909</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="F41" t="n">
-        <v>25.62796184383909</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G41" t="n">
         <v>1.880777036723551</v>
@@ -7414,7 +7414,7 @@
         <v>1.880777036723551</v>
       </c>
       <c r="K41" t="n">
-        <v>8.415911685442898</v>
+        <v>8.415911685442904</v>
       </c>
       <c r="L41" t="n">
         <v>22.51986039522948</v>
@@ -7423,7 +7423,7 @@
         <v>43.35950445951396</v>
       </c>
       <c r="N41" t="n">
-        <v>65.28609961349599</v>
+        <v>65.28609961349601</v>
       </c>
       <c r="O41" t="n">
         <v>83.82378169965438</v>
@@ -7447,16 +7447,16 @@
         <v>94.03885183617753</v>
       </c>
       <c r="V41" t="n">
+        <v>94.03885183617753</v>
+      </c>
+      <c r="W41" t="n">
+        <v>94.03885183617753</v>
+      </c>
+      <c r="X41" t="n">
         <v>73.12233145807016</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Y41" t="n">
         <v>49.37514665095463</v>
-      </c>
-      <c r="X41" t="n">
-        <v>25.62796184383909</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>25.62796184383909</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>46.54448222194645</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="C42" t="n">
-        <v>46.54448222194645</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="D42" t="n">
-        <v>46.54448222194645</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="E42" t="n">
-        <v>46.54448222194645</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="F42" t="n">
         <v>25.62796184383909</v>
@@ -7496,10 +7496,10 @@
         <v>8.19312939818548</v>
       </c>
       <c r="L42" t="n">
-        <v>17.7608115939534</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M42" t="n">
-        <v>39.59522696312118</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N42" t="n">
         <v>62.86984279257511</v>
@@ -7532,10 +7532,10 @@
         <v>70.29166702906198</v>
       </c>
       <c r="X42" t="n">
-        <v>46.54448222194645</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="Y42" t="n">
-        <v>46.54448222194645</v>
+        <v>70.29166702906198</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.37514665095463</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="C43" t="n">
-        <v>49.37514665095463</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="D43" t="n">
-        <v>49.37514665095463</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="E43" t="n">
-        <v>49.37514665095463</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="F43" t="n">
-        <v>49.37514665095463</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G43" t="n">
-        <v>25.62796184383909</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H43" t="n">
         <v>1.880777036723551</v>
@@ -7569,52 +7569,52 @@
         <v>1.880777036723551</v>
       </c>
       <c r="J43" t="n">
-        <v>25.15539286617749</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K43" t="n">
-        <v>48.43000869563143</v>
+        <v>20.99901139004206</v>
       </c>
       <c r="L43" t="n">
-        <v>48.71953340478272</v>
+        <v>21.28853609919334</v>
       </c>
       <c r="M43" t="n">
-        <v>49.55426760602709</v>
+        <v>22.12327030043771</v>
       </c>
       <c r="N43" t="n">
-        <v>51.64600165340509</v>
+        <v>24.21500434781572</v>
       </c>
       <c r="O43" t="n">
+        <v>47.48962017726966</v>
+      </c>
+      <c r="P43" t="n">
         <v>70.76423600672359</v>
-      </c>
-      <c r="P43" t="n">
-        <v>94.03885183617753</v>
       </c>
       <c r="Q43" t="n">
         <v>94.03885183617753</v>
       </c>
       <c r="R43" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="S43" t="n">
-        <v>94.03885183617753</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="T43" t="n">
         <v>70.29166702906198</v>
       </c>
       <c r="U43" t="n">
-        <v>49.37514665095463</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="V43" t="n">
-        <v>49.37514665095463</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="W43" t="n">
-        <v>49.37514665095463</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="X43" t="n">
-        <v>49.37514665095463</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.37514665095463</v>
+        <v>22.79729741483091</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23.56652665559608</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="C44" t="n">
-        <v>23.56652665559608</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="D44" t="n">
-        <v>23.56652665559608</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="E44" t="n">
-        <v>23.56652665559608</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F44" t="n">
-        <v>23.56652665559608</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="G44" t="n">
-        <v>23.56652665559608</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H44" t="n">
-        <v>23.56652665559608</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I44" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J44" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K44" t="n">
-        <v>10.41318076204951</v>
+        <v>8.415911685442904</v>
       </c>
       <c r="L44" t="n">
-        <v>26.63838006872332</v>
+        <v>22.51986039522948</v>
       </c>
       <c r="M44" t="n">
-        <v>49.83832414327776</v>
+        <v>43.35950445951396</v>
       </c>
       <c r="N44" t="n">
-        <v>74.16341142931361</v>
+        <v>65.28609961349601</v>
       </c>
       <c r="O44" t="n">
-        <v>94.96592162254093</v>
+        <v>83.82378169965438</v>
       </c>
       <c r="P44" t="n">
-        <v>107.1139701497973</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q44" t="n">
-        <v>108.4085773539135</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R44" t="n">
-        <v>108.4085773539135</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S44" t="n">
-        <v>108.4085773539135</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="T44" t="n">
-        <v>81.0326739817131</v>
+        <v>70.29166702906198</v>
       </c>
       <c r="U44" t="n">
-        <v>81.0326739817131</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="V44" t="n">
-        <v>53.65677060951273</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="W44" t="n">
-        <v>26.28086723731236</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="X44" t="n">
-        <v>23.56652665559608</v>
+        <v>46.54448222194645</v>
       </c>
       <c r="Y44" t="n">
-        <v>23.56652665559608</v>
+        <v>46.54448222194645</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="C45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="D45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="E45" t="n">
-        <v>84.29588166367938</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="F45" t="n">
-        <v>56.91997829147901</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="G45" t="n">
-        <v>29.54407491927864</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="H45" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I45" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J45" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K45" t="n">
-        <v>9.64189218666789</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L45" t="n">
-        <v>27.21864483872123</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M45" t="n">
-        <v>50.87537721979754</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N45" t="n">
-        <v>77.49963771300574</v>
+        <v>62.86984279257511</v>
       </c>
       <c r="O45" t="n">
-        <v>98.24491787301493</v>
+        <v>81.90393668038415</v>
       </c>
       <c r="P45" t="n">
-        <v>107.4905106356412</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.4085773539135</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R45" t="n">
-        <v>108.4085773539135</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="U45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="V45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="W45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="X45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="Y45" t="n">
-        <v>84.29588166367938</v>
+        <v>94.03885183617753</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.91997829147901</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="C46" t="n">
-        <v>29.54407491927864</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="D46" t="n">
-        <v>29.54407491927864</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="E46" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="F46" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="G46" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="H46" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="I46" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="J46" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="K46" t="n">
-        <v>2.168171547078269</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="L46" t="n">
-        <v>28.99929444217186</v>
+        <v>2.170301745874835</v>
       </c>
       <c r="M46" t="n">
-        <v>55.83041733726544</v>
+        <v>24.21500434781572</v>
       </c>
       <c r="N46" t="n">
-        <v>58.84484839957671</v>
+        <v>47.48962017726966</v>
       </c>
       <c r="O46" t="n">
-        <v>58.84484839957671</v>
+        <v>47.48962017726966</v>
       </c>
       <c r="P46" t="n">
-        <v>81.57745445881989</v>
+        <v>70.76423600672359</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4085773539135</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="R46" t="n">
-        <v>108.4085773539135</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="S46" t="n">
-        <v>108.4085773539135</v>
+        <v>94.03885183617753</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4085773539135</v>
+        <v>73.12233145807016</v>
       </c>
       <c r="U46" t="n">
-        <v>108.4085773539135</v>
+        <v>49.37514665095463</v>
       </c>
       <c r="V46" t="n">
-        <v>108.4085773539135</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="W46" t="n">
-        <v>108.4085773539135</v>
+        <v>25.62796184383909</v>
       </c>
       <c r="X46" t="n">
-        <v>108.4085773539135</v>
+        <v>1.880777036723551</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.29588166367938</v>
+        <v>1.880777036723551</v>
       </c>
     </row>
   </sheetData>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7.415995117306384</v>
+        <v>3.021643902788</v>
       </c>
       <c r="K17" t="n">
-        <v>2.786362146091513</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6143503109632658</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2941343268911112</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.128025379424045</v>
+        <v>2.536891551628969</v>
       </c>
       <c r="R17" t="n">
-        <v>27.72714562344173</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11.39649556952178</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J18" t="n">
-        <v>7.505703897832523</v>
+        <v>4.888458418784959</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.040345688132874</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R18" t="n">
-        <v>15.06049703097857</v>
+        <v>13.34053384443211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.41484263875958</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K19" t="n">
-        <v>7.453525154664103</v>
+        <v>22.97356194757786</v>
       </c>
       <c r="L19" t="n">
-        <v>4.629166113207063</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M19" t="n">
-        <v>13.32592508338676</v>
+        <v>18.92374087635456</v>
       </c>
       <c r="N19" t="n">
-        <v>2.952904146645743</v>
+        <v>17.61722182806912</v>
       </c>
       <c r="O19" t="n">
-        <v>14.67881595308126</v>
+        <v>2.779019446119918</v>
       </c>
       <c r="P19" t="n">
-        <v>17.29563157015431</v>
+        <v>22.9890041721943</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.86154956246998</v>
+        <v>12.9368725197517</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.415995117306384</v>
+        <v>3.021643902788004</v>
       </c>
       <c r="K20" t="n">
-        <v>2.786362146091513</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.01673314529951</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8882490137052272</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.689305807571515</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2941343268911112</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.128025379424045</v>
+        <v>2.536891551628976</v>
       </c>
       <c r="R20" t="n">
-        <v>18.74720796782874</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11.39649556952178</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J21" t="n">
-        <v>7.505703897832523</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.040345688132874</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R21" t="n">
-        <v>15.06049703097857</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>21.03195453050941</v>
+        <v>28.99117420462826</v>
       </c>
       <c r="K22" t="n">
-        <v>7.453525154664103</v>
+        <v>4.755254677277748</v>
       </c>
       <c r="L22" t="n">
-        <v>13.60910376882005</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M22" t="n">
-        <v>13.32592508338676</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N22" t="n">
-        <v>2.952904146645743</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>15.04164171694442</v>
+        <v>19.66014805114662</v>
       </c>
       <c r="P22" t="n">
-        <v>8.315693914541322</v>
+        <v>23.72509739523674</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.881611906857</v>
+        <v>31.15517979005181</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.58412498144983</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K28" t="n">
         <v>3.60747870011792</v>
@@ -10044,13 +10044,13 @@
         <v>22.66654709920158</v>
       </c>
       <c r="N28" t="n">
-        <v>20.15451369147765</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.382648484235652</v>
+        <v>21.53716217571331</v>
       </c>
       <c r="P28" t="n">
-        <v>4.311953536506707</v>
+        <v>27.82166649555109</v>
       </c>
       <c r="Q28" t="n">
         <v>35.6193425581686</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.58412498144983</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K31" t="n">
         <v>3.60747870011792</v>
@@ -10278,19 +10278,19 @@
         <v>23.21726375788147</v>
       </c>
       <c r="M31" t="n">
-        <v>19.60379703279776</v>
+        <v>21.71665970691696</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>21.39685028492518</v>
       </c>
       <c r="O31" t="n">
         <v>1.382648484235652</v>
       </c>
       <c r="P31" t="n">
-        <v>4.311953536506707</v>
+        <v>27.82166649555109</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.6193425581686</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.22892571388308</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K34" t="n">
-        <v>27.1171916591623</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>23.21726375788147</v>
       </c>
       <c r="M34" t="n">
         <v>22.66654709920158</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>20.44696289264056</v>
       </c>
       <c r="O34" t="n">
         <v>1.382648484235652</v>
       </c>
       <c r="P34" t="n">
-        <v>4.311953536506707</v>
+        <v>27.82166649555109</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.6193425581686</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>3.60747870011792</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>23.21726375788147</v>
       </c>
       <c r="M37" t="n">
-        <v>22.66654709920158</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>21.53716217571328</v>
+        <v>20.98644551703342</v>
       </c>
       <c r="P37" t="n">
         <v>27.82166649555109</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.58412498144983</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K40" t="n">
         <v>3.60747870011792</v>
@@ -10989,19 +10989,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>22.66654709920158</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>21.39685028492518</v>
       </c>
       <c r="O40" t="n">
-        <v>1.382648484235652</v>
+        <v>24.89236144328003</v>
       </c>
       <c r="P40" t="n">
-        <v>4.311953536506707</v>
+        <v>27.82166649555109</v>
       </c>
       <c r="Q40" t="n">
-        <v>34.37700596472106</v>
+        <v>33.53384010487827</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.58412498144983</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K43" t="n">
-        <v>27.1171916591623</v>
+        <v>22.91882653175277</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>20.6939963158705</v>
+        <v>24.89236144328003</v>
       </c>
       <c r="P43" t="n">
         <v>27.82166649555109</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.10962959912422</v>
+        <v>35.6193425581686</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R44" t="n">
-        <v>13.25852621066004</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.786877180652272</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J45" t="n">
-        <v>3.088788010617485</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.15785271087199</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>9.643811555361342</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K46" t="n">
-        <v>2.899869857527751</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L46" t="n">
-        <v>25.9041994399978</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>25.30426022567921</v>
+        <v>21.42421050575405</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>21.39685028492518</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5217797608716488</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P46" t="n">
-        <v>26.53755996667113</v>
+        <v>27.82166649555109</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.70177510746972</v>
+        <v>35.6193425581686</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>397.4315733783146</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>404.4134154165328</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>403.0130095631694</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>412.9634109054298</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>391.0564788915124</v>
+        <v>399.9846413962156</v>
       </c>
       <c r="H17" t="n">
-        <v>283.2546593654013</v>
+        <v>291.7043547567607</v>
       </c>
       <c r="I17" t="n">
-        <v>15.5730272744461</v>
+        <v>22.55690342461458</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.4158424195746</v>
+        <v>78.01770889792071</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5814254356876</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7506198904062</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23816,19 +23816,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>86.75487385618747</v>
       </c>
       <c r="E18" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>74.49106474362476</v>
       </c>
       <c r="G18" t="n">
-        <v>92.97452028251483</v>
+        <v>92.94681813455406</v>
       </c>
       <c r="H18" t="n">
-        <v>42.52271154404281</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>68.9545196464106</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T18" t="n">
-        <v>130.92208480499</v>
+        <v>121.5720560939171</v>
       </c>
       <c r="U18" t="n">
-        <v>175.0018591257815</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23895,22 +23895,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>145.6369201008167</v>
       </c>
       <c r="E19" t="n">
-        <v>156.6365947016111</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.4781070335314</v>
+        <v>164.4548824832565</v>
       </c>
       <c r="H19" t="n">
-        <v>141.3243555367009</v>
+        <v>141.1178681715301</v>
       </c>
       <c r="I19" t="n">
-        <v>95.27363565084021</v>
+        <v>94.57521008439309</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.33927213211291</v>
+        <v>22.07670462854574</v>
       </c>
       <c r="S19" t="n">
-        <v>157.4270899557363</v>
+        <v>147.7839797694413</v>
       </c>
       <c r="T19" t="n">
-        <v>240.4090661296859</v>
+        <v>222.0915266900296</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3762607615072</v>
+        <v>277.3749939678559</v>
       </c>
       <c r="V19" t="n">
-        <v>269.9144150624384</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>263.1239421335991</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>404.4134154165328</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23983,13 +23983,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>391.0564788915124</v>
+        <v>399.9846413962156</v>
       </c>
       <c r="H20" t="n">
-        <v>292.2345970210142</v>
+        <v>291.7043547567607</v>
       </c>
       <c r="I20" t="n">
-        <v>24.55296493005908</v>
+        <v>22.55690342461459</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.4158424195746</v>
+        <v>80.18933112454049</v>
       </c>
       <c r="T20" t="n">
-        <v>208.6014877800746</v>
+        <v>199.1364724422805</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7506198904062</v>
+        <v>237.5281706080333</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>383.4474985470436</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>399.6932697568663</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24062,10 +24062,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>92.97452028251483</v>
+        <v>92.94681813455406</v>
       </c>
       <c r="H21" t="n">
-        <v>51.50264919965579</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>77.93445730202359</v>
+        <v>61.37321701003694</v>
       </c>
       <c r="T21" t="n">
-        <v>131.9924933735391</v>
+        <v>121.5720560939171</v>
       </c>
       <c r="U21" t="n">
-        <v>173.9314505572324</v>
+        <v>164.691258432811</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>185.576225739502</v>
+        <v>176.3378561248149</v>
       </c>
       <c r="X21" t="n">
-        <v>152.8626351153907</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
         <v>138.2959597602405</v>
@@ -24135,19 +24135,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>155.566186133062</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.4781070335314</v>
+        <v>164.4548824832565</v>
       </c>
       <c r="H22" t="n">
-        <v>141.3243555367009</v>
+        <v>141.1178681715301</v>
       </c>
       <c r="I22" t="n">
-        <v>95.27363565084021</v>
+        <v>94.57521008439309</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.33927213211291</v>
+        <v>22.07670462854574</v>
       </c>
       <c r="S22" t="n">
-        <v>166.4070276113493</v>
+        <v>166.0022870397414</v>
       </c>
       <c r="T22" t="n">
-        <v>240.4090661296859</v>
+        <v>240.3098339603297</v>
       </c>
       <c r="U22" t="n">
-        <v>268.3963231058942</v>
+        <v>259.1566866975558</v>
       </c>
       <c r="V22" t="n">
-        <v>270.9848236309875</v>
+        <v>260.6760454477513</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>256.0571947455318</v>
       </c>
       <c r="X22" t="n">
-        <v>231.1583199330399</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24208,19 +24208,19 @@
         <v>392.1401676895703</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>399.1220097277885</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>398.3523394325234</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>397.3632270334493</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>376.4529045982248</v>
+        <v>399.9626175572692</v>
       </c>
       <c r="H23" t="n">
         <v>291.4788031161503</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>95.73414793822852</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T23" t="n">
         <v>217.2583703575925</v>
       </c>
       <c r="U23" t="n">
-        <v>235.0373607968914</v>
+        <v>255.7447159712177</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24287,7 +24287,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C24" t="n">
-        <v>92.82113148862588</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
         <v>79.29184594082344</v>
@@ -24296,7 +24296,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F24" t="n">
-        <v>92.70937201392488</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G24" t="n">
         <v>92.93503434185737</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>77.20102327270656</v>
+        <v>56.49366809838028</v>
       </c>
       <c r="T24" t="n">
-        <v>139.7428664103214</v>
+        <v>116.233153451277</v>
       </c>
       <c r="U24" t="n">
         <v>182.9087904535916</v>
@@ -24347,10 +24347,10 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W24" t="n">
-        <v>171.0464504360706</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X24" t="n">
-        <v>141.1352175966774</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y24" t="n">
         <v>138.2959597602405</v>
@@ -24366,10 +24366,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5454823155468</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>138.1738921854526</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24414,19 +24414,19 @@
         <v>16.34109706319486</v>
       </c>
       <c r="S25" t="n">
-        <v>165.8301206431674</v>
+        <v>145.1227654688411</v>
       </c>
       <c r="T25" t="n">
-        <v>240.2676231067096</v>
+        <v>216.7579101476652</v>
       </c>
       <c r="U25" t="n">
         <v>277.3744551058947</v>
       </c>
       <c r="V25" t="n">
-        <v>255.384639759007</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>248.5941668301677</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24448,7 +24448,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>395.5499816478053</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24460,7 +24460,7 @@
         <v>399.9626175572692</v>
       </c>
       <c r="H26" t="n">
-        <v>270.7714479418241</v>
+        <v>291.4788031161503</v>
       </c>
       <c r="I26" t="n">
         <v>21.70782937363144</v>
@@ -24502,16 +24502,16 @@
         <v>255.7447159712177</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>333.2071655506867</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>368.9177232436122</v>
       </c>
       <c r="X26" t="n">
-        <v>384.0930858848858</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.7741843856141</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24524,16 +24524,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C27" t="n">
-        <v>95.62348927334398</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D27" t="n">
-        <v>79.29184594082344</v>
+        <v>82.09420372554153</v>
       </c>
       <c r="E27" t="n">
-        <v>103.6549143897921</v>
+        <v>80.14520143074776</v>
       </c>
       <c r="F27" t="n">
-        <v>92.70937201392488</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G27" t="n">
         <v>92.93503434185737</v>
@@ -24578,7 +24578,7 @@
         <v>139.7428664103214</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9087904535916</v>
+        <v>159.3990774945472</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24587,10 +24587,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X27" t="n">
-        <v>138.3328598119593</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y27" t="n">
-        <v>114.7862468011961</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="28">
@@ -24609,7 +24609,7 @@
         <v>138.1738921854526</v>
       </c>
       <c r="E28" t="n">
-        <v>141.0364108296306</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.14345484791296</v>
+        <v>39.85081002223924</v>
       </c>
       <c r="S28" t="n">
         <v>165.8301206431674</v>
@@ -24657,10 +24657,10 @@
         <v>240.2676231067096</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3744551058947</v>
+        <v>253.8647421468503</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>258.1869975437251</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>392.1401676895703</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>399.1220097277885</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>398.3523394325234</v>
+        <v>395.5499816478053</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>398.2074574945766</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24697,7 +24697,7 @@
         <v>399.9626175572692</v>
       </c>
       <c r="H29" t="n">
-        <v>291.4788031161503</v>
+        <v>270.7714479418241</v>
       </c>
       <c r="I29" t="n">
         <v>21.70782937363144</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>95.73414793822852</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T29" t="n">
         <v>217.2583703575925</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.7741843856141</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C30" t="n">
-        <v>95.62348927334398</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D30" t="n">
-        <v>79.29184594082344</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E30" t="n">
         <v>80.14520143074776</v>
       </c>
       <c r="F30" t="n">
-        <v>92.70937201392488</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G30" t="n">
         <v>92.93503434185737</v>
       </c>
       <c r="H30" t="n">
-        <v>51.12129814120099</v>
+        <v>27.61158518215661</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>77.20102327270656</v>
+        <v>56.49366809838028</v>
       </c>
       <c r="T30" t="n">
         <v>139.7428664103214</v>
@@ -24827,7 +24827,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
-        <v>114.7862468011961</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>146.7431245308288</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24852,7 +24852,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>143.7376481729766</v>
+        <v>164.4450033473029</v>
       </c>
       <c r="H31" t="n">
         <v>141.0300336718695</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.34109706319486</v>
+        <v>39.85081002223924</v>
       </c>
       <c r="S31" t="n">
         <v>142.320407684123</v>
@@ -24894,7 +24894,7 @@
         <v>216.7579101476652</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3744551058947</v>
+        <v>256.6670999315684</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>392.1401676895704</v>
       </c>
       <c r="C32" t="n">
-        <v>401.9243675125066</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>395.5499816478053</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>397.3632270334493</v>
       </c>
       <c r="G32" t="n">
-        <v>376.4529045982248</v>
+        <v>399.9626175572692</v>
       </c>
       <c r="H32" t="n">
         <v>291.4788031161503</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>95.73414793822852</v>
+        <v>75.02679276390222</v>
       </c>
       <c r="T32" t="n">
         <v>217.2583703575925</v>
@@ -25007,10 +25007,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F33" t="n">
-        <v>69.1996590548805</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>92.93503434185737</v>
+        <v>69.425321382813</v>
       </c>
       <c r="H33" t="n">
         <v>51.12129814120099</v>
@@ -25049,16 +25049,16 @@
         <v>77.20102327270656</v>
       </c>
       <c r="T33" t="n">
-        <v>139.7428664103214</v>
+        <v>116.233153451277</v>
       </c>
       <c r="U33" t="n">
-        <v>159.3990774945472</v>
+        <v>162.2014352792653</v>
       </c>
       <c r="V33" t="n">
         <v>179.413694513082</v>
       </c>
       <c r="W33" t="n">
-        <v>173.8488082207887</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X33" t="n">
         <v>161.8425727710037</v>
@@ -25077,7 +25077,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>149.5454823155468</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>149.4358013088589</v>
       </c>
       <c r="G34" t="n">
         <v>164.4450033473029</v>
@@ -25128,22 +25128,22 @@
         <v>165.8301206431674</v>
       </c>
       <c r="T34" t="n">
-        <v>240.2676231067096</v>
+        <v>216.7579101476652</v>
       </c>
       <c r="U34" t="n">
         <v>277.3744551058947</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>255.384639759007</v>
       </c>
       <c r="W34" t="n">
         <v>248.5941668301677</v>
       </c>
       <c r="X34" t="n">
-        <v>216.6285446296085</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.569627668111</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>399.1220097277885</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,10 +25165,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>400.1655848181675</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>376.4529045982248</v>
+        <v>379.2552623829429</v>
       </c>
       <c r="H35" t="n">
         <v>291.4788031161503</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.73414793822852</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T35" t="n">
-        <v>193.7486573985481</v>
+        <v>217.2583703575925</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7447159712177</v>
+        <v>232.2350030121733</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>384.0930858848859</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25244,10 +25244,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F36" t="n">
-        <v>92.70937201392488</v>
+        <v>72.0020168395986</v>
       </c>
       <c r="G36" t="n">
-        <v>72.22767916753109</v>
+        <v>69.425321382813</v>
       </c>
       <c r="H36" t="n">
         <v>51.12129814120099</v>
@@ -25286,19 +25286,19 @@
         <v>77.20102327270656</v>
       </c>
       <c r="T36" t="n">
-        <v>116.233153451277</v>
+        <v>139.7428664103214</v>
       </c>
       <c r="U36" t="n">
-        <v>159.3990774945472</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V36" t="n">
-        <v>179.413694513082</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W36" t="n">
-        <v>194.556163395115</v>
+        <v>171.0464504360706</v>
       </c>
       <c r="X36" t="n">
-        <v>161.8425727710037</v>
+        <v>138.3328598119593</v>
       </c>
       <c r="Y36" t="n">
         <v>138.2959597602405</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>164.7545960659006</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>146.7431245308288</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,7 +25323,7 @@
         <v>141.0364108296306</v>
       </c>
       <c r="F37" t="n">
-        <v>146.6334435241408</v>
+        <v>149.4358013088589</v>
       </c>
       <c r="G37" t="n">
         <v>164.4450033473029</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.34109706319487</v>
+        <v>39.85081002223924</v>
       </c>
       <c r="S37" t="n">
         <v>165.8301206431674</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5602679323833</v>
+        <v>240.2676231067096</v>
       </c>
       <c r="U37" t="n">
         <v>277.3744551058947</v>
@@ -25396,22 +25396,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>396.5504558471105</v>
+        <v>395.5499816478053</v>
       </c>
       <c r="E38" t="n">
-        <v>398.2074574945767</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>397.3632270334494</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>399.9626175572692</v>
+        <v>379.2552623829429</v>
       </c>
       <c r="H38" t="n">
         <v>291.4788031161503</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>21.70782937363144</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.73414793822852</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2583703575925</v>
+        <v>193.7486573985481</v>
       </c>
       <c r="U38" t="n">
         <v>255.7447159712177</v>
@@ -25475,10 +25475,10 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D39" t="n">
-        <v>79.29184594082344</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E39" t="n">
-        <v>82.94755921546586</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
         <v>69.1996590548805</v>
@@ -25523,13 +25523,13 @@
         <v>77.20102327270656</v>
       </c>
       <c r="T39" t="n">
-        <v>139.7428664103214</v>
+        <v>119.0355112359951</v>
       </c>
       <c r="U39" t="n">
         <v>182.9087904535916</v>
       </c>
       <c r="V39" t="n">
-        <v>202.9234074721264</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W39" t="n">
         <v>194.556163395115</v>
@@ -25551,7 +25551,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>146.7431245308288</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,13 +25560,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>149.4358013088589</v>
+        <v>146.6334435241408</v>
       </c>
       <c r="G40" t="n">
-        <v>140.9352903882585</v>
+        <v>164.4450033473029</v>
       </c>
       <c r="H40" t="n">
-        <v>117.5203207128251</v>
+        <v>141.0300336718695</v>
       </c>
       <c r="I40" t="n">
         <v>94.27811752316894</v>
@@ -25599,13 +25599,13 @@
         <v>39.85081002223924</v>
       </c>
       <c r="S40" t="n">
-        <v>165.8301206431674</v>
+        <v>142.320407684123</v>
       </c>
       <c r="T40" t="n">
-        <v>240.2676231067096</v>
+        <v>219.5602679323833</v>
       </c>
       <c r="U40" t="n">
-        <v>253.8647421468503</v>
+        <v>277.3744551058947</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>392.1401676895703</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>395.5499816478053</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25642,7 +25642,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>376.4529045982248</v>
+        <v>399.9626175572692</v>
       </c>
       <c r="H41" t="n">
         <v>291.4788031161503</v>
@@ -25687,16 +25687,16 @@
         <v>255.7447159712177</v>
       </c>
       <c r="V41" t="n">
-        <v>333.2071655506867</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>368.9177232436122</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>384.0930858848858</v>
+        <v>386.8954436696039</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>377.7741843856141</v>
       </c>
     </row>
     <row r="42">
@@ -25715,10 +25715,10 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E42" t="n">
-        <v>103.6549143897921</v>
+        <v>82.94755921546586</v>
       </c>
       <c r="F42" t="n">
-        <v>72.0020168395986</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G42" t="n">
         <v>69.425321382813</v>
@@ -25772,7 +25772,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X42" t="n">
-        <v>138.3328598119593</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y42" t="n">
         <v>138.2959597602405</v>
@@ -25791,7 +25791,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>140.9762499701707</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,10 +25800,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>140.9352903882585</v>
+        <v>164.4450033473029</v>
       </c>
       <c r="H43" t="n">
-        <v>117.5203207128251</v>
+        <v>141.0300336718695</v>
       </c>
       <c r="I43" t="n">
         <v>94.27811752316894</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.85081002223924</v>
+        <v>16.34109706319486</v>
       </c>
       <c r="S43" t="n">
         <v>165.8301206431674</v>
       </c>
       <c r="T43" t="n">
-        <v>216.7579101476652</v>
+        <v>240.2676231067096</v>
       </c>
       <c r="U43" t="n">
-        <v>256.6670999315684</v>
+        <v>277.3744551058947</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25851,10 +25851,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>216.6285446296085</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>200.569627668111</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>399.1220097277885</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.9490397655255</v>
+        <v>379.2552623829429</v>
       </c>
       <c r="H44" t="n">
-        <v>291.3397495564552</v>
+        <v>291.4788031161503</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>21.70782937363144</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.42474400886907</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T44" t="n">
-        <v>190.0967892357561</v>
+        <v>217.2583703575925</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7436297478782</v>
+        <v>232.2350030121733</v>
       </c>
       <c r="V44" t="n">
-        <v>326.8123763865347</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>365.3252918641782</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>404.9156016680311</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -25952,16 +25952,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>82.94755921546584</v>
       </c>
       <c r="F45" t="n">
-        <v>65.60722767544651</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G45" t="n">
-        <v>65.82562524433426</v>
+        <v>69.425321382813</v>
       </c>
       <c r="H45" t="n">
-        <v>23.94899152457989</v>
+        <v>27.61158518215661</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>53.19451482641639</v>
+        <v>77.20102327270656</v>
       </c>
       <c r="T45" t="n">
-        <v>139.7135843332946</v>
+        <v>139.7428664103214</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9083125089176</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.1621646864666</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>143.1506931513948</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>137.4439794501966</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4389128173588</v>
+        <v>164.4450033473029</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9758833238215</v>
+        <v>141.0300336718695</v>
       </c>
       <c r="I46" t="n">
-        <v>94.09495867721525</v>
+        <v>94.27811752316894</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.57695764857328</v>
+        <v>39.85081002223924</v>
       </c>
       <c r="S46" t="n">
-        <v>165.7239793167789</v>
+        <v>165.8301206431674</v>
       </c>
       <c r="T46" t="n">
-        <v>240.2415999333123</v>
+        <v>219.5602679323833</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3741228951705</v>
+        <v>253.8647421468503</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>255.384639759007</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>216.6285446296085</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.2077718938236</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66947.41967687917</v>
+        <v>74330.2864043748</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66947.41967687917</v>
+        <v>74330.28640437478</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78690.51063846481</v>
+        <v>78690.5106384648</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>78690.51063846475</v>
+        <v>78690.5106384648</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>78690.51063846475</v>
+        <v>78690.5106384648</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>78690.5106384648</v>
+        <v>78690.51063846482</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81684.27805063309</v>
+        <v>78690.5106384648</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>13744.86025165794</v>
       </c>
       <c r="C2" t="n">
-        <v>13744.86025165795</v>
+        <v>13744.86025165794</v>
       </c>
       <c r="D2" t="n">
         <v>14176.28669019036</v>
@@ -26328,10 +26328,10 @@
         <v>14344.4951778936</v>
       </c>
       <c r="G2" t="n">
-        <v>16254.92240289413</v>
+        <v>18232.61179762146</v>
       </c>
       <c r="H2" t="n">
-        <v>16254.92240289413</v>
+        <v>18232.61179762146</v>
       </c>
       <c r="I2" t="n">
         <v>19343.89553518541</v>
@@ -26343,19 +26343,19 @@
         <v>19343.89553518541</v>
       </c>
       <c r="L2" t="n">
-        <v>19343.89553518541</v>
+        <v>19343.8955351854</v>
       </c>
       <c r="M2" t="n">
         <v>19343.8955351854</v>
       </c>
       <c r="N2" t="n">
-        <v>19343.8955351854</v>
+        <v>19343.89553518541</v>
       </c>
       <c r="O2" t="n">
-        <v>19343.8955351854</v>
+        <v>19343.89553518541</v>
       </c>
       <c r="P2" t="n">
-        <v>20094.49963844918</v>
+        <v>19343.89553518541</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11373.62205793931</v>
+        <v>23919.02914916057</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17682.36118749385</v>
+        <v>5530.978549503672</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2161.030976760922</v>
+        <v>4384.253862904992</v>
       </c>
       <c r="P3" t="n">
-        <v>3097.124138885723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,19 +26423,19 @@
         <v>9817.757322612819</v>
       </c>
       <c r="D4" t="n">
-        <v>4298.372149429013</v>
+        <v>4298.372149429014</v>
       </c>
       <c r="E4" t="n">
-        <v>2377.188377562274</v>
+        <v>2377.188377562275</v>
       </c>
       <c r="F4" t="n">
-        <v>2377.188377562274</v>
+        <v>2377.188377562275</v>
       </c>
       <c r="G4" t="n">
-        <v>1935.51703184673</v>
+        <v>1415.637246641935</v>
       </c>
       <c r="H4" t="n">
-        <v>1935.51703184673</v>
+        <v>1415.637246641936</v>
       </c>
       <c r="I4" t="n">
         <v>1335.314980936339</v>
@@ -26459,7 +26459,7 @@
         <v>1335.314980936339</v>
       </c>
       <c r="P4" t="n">
-        <v>1329.781162363275</v>
+        <v>1335.314980936339</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>1155.982321943114</v>
       </c>
       <c r="G5" t="n">
-        <v>1951.856558486629</v>
+        <v>2794.313130654941</v>
       </c>
       <c r="H5" t="n">
-        <v>1951.856558486629</v>
+        <v>2794.313130654941</v>
       </c>
       <c r="I5" t="n">
         <v>3235.460369177474</v>
@@ -26499,19 +26499,19 @@
         <v>3235.460369177474</v>
       </c>
       <c r="L5" t="n">
-        <v>3235.460369177473</v>
+        <v>3235.460369177474</v>
       </c>
       <c r="M5" t="n">
-        <v>3235.460369177473</v>
+        <v>3235.460369177474</v>
       </c>
       <c r="N5" t="n">
-        <v>3235.460369177473</v>
+        <v>3235.460369177474</v>
       </c>
       <c r="O5" t="n">
         <v>3235.460369177474</v>
       </c>
       <c r="P5" t="n">
-        <v>3527.509167225183</v>
+        <v>3235.460369177474</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29700.49707095487</v>
+        <v>-31058.42616775665</v>
       </c>
       <c r="C6" t="n">
-        <v>-29700.49707095487</v>
+        <v>-31058.42616775665</v>
       </c>
       <c r="D6" t="n">
-        <v>-57255.09187469071</v>
+        <v>-58609.93935407441</v>
       </c>
       <c r="E6" t="n">
-        <v>-1139.259652480256</v>
+        <v>-2492.905642666067</v>
       </c>
       <c r="F6" t="n">
-        <v>10811.32447838821</v>
+        <v>9457.678488202402</v>
       </c>
       <c r="G6" t="n">
-        <v>993.9267546214642</v>
+        <v>-11222.24145745231</v>
       </c>
       <c r="H6" t="n">
-        <v>12367.54881256077</v>
+        <v>12696.78769170826</v>
       </c>
       <c r="I6" t="n">
-        <v>-2909.241002422258</v>
+        <v>7924.205647934195</v>
       </c>
       <c r="J6" t="n">
-        <v>14773.12018507159</v>
+        <v>13455.18419743787</v>
       </c>
       <c r="K6" t="n">
-        <v>14773.1201850716</v>
+        <v>13455.18419743787</v>
       </c>
       <c r="L6" t="n">
-        <v>14773.1201850716</v>
+        <v>13455.18419743786</v>
       </c>
       <c r="M6" t="n">
-        <v>14773.12018507159</v>
+        <v>13455.18419743786</v>
       </c>
       <c r="N6" t="n">
-        <v>14773.12018507159</v>
+        <v>13455.18419743787</v>
       </c>
       <c r="O6" t="n">
-        <v>12612.08920831067</v>
+        <v>9070.930334532879</v>
       </c>
       <c r="P6" t="n">
-        <v>12140.085169975</v>
+        <v>13455.18419743787</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>53.02671201573919</v>
       </c>
       <c r="G3" t="n">
-        <v>64.4897407809798</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="H3" t="n">
-        <v>64.4897407809798</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="I3" t="n">
         <v>82.84723950768694</v>
@@ -26779,7 +26779,7 @@
         <v>82.84723950768694</v>
       </c>
       <c r="P3" t="n">
-        <v>86.2247152039311</v>
+        <v>82.84723950768694</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="H4" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="I4" t="n">
         <v>23.50971295904438</v>
@@ -26819,19 +26819,19 @@
         <v>23.50971295904438</v>
       </c>
       <c r="L4" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="M4" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="N4" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O4" t="n">
         <v>23.50971295904438</v>
       </c>
       <c r="P4" t="n">
-        <v>27.10214433847837</v>
+        <v>23.50971295904438</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.46302876524061</v>
+        <v>24.34209755401744</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.35749872670714</v>
+        <v>5.478429937930315</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.377475696244147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5297753034314</v>
+        <v>5.29140568874427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.979937655612993</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="P4" t="n">
-        <v>3.592431379433986</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2592552393205216</v>
+        <v>0.3110303902301772</v>
       </c>
       <c r="H17" t="n">
-        <v>2.655097719691293</v>
+        <v>3.185339983944803</v>
       </c>
       <c r="I17" t="n">
-        <v>9.994937613904419</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J17" t="n">
-        <v>22.00396436828014</v>
+        <v>26.39831558279852</v>
       </c>
       <c r="K17" t="n">
-        <v>32.97823864871783</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L17" t="n">
-        <v>40.91242117907325</v>
+        <v>49.08292830624873</v>
       </c>
       <c r="M17" t="n">
-        <v>45.52295154133957</v>
+        <v>54.61421500850464</v>
       </c>
       <c r="N17" t="n">
-        <v>46.25956049005901</v>
+        <v>55.49793010474613</v>
       </c>
       <c r="O17" t="n">
-        <v>43.68159120406557</v>
+        <v>52.40512166189481</v>
       </c>
       <c r="P17" t="n">
-        <v>37.28122748334019</v>
+        <v>44.7265589030873</v>
       </c>
       <c r="Q17" t="n">
-        <v>27.996649225174</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R17" t="n">
-        <v>16.28544192696773</v>
+        <v>19.53776275029638</v>
       </c>
       <c r="S17" t="n">
-        <v>5.907778766016392</v>
+        <v>7.08760501737017</v>
       </c>
       <c r="T17" t="n">
-        <v>1.134889810125584</v>
+        <v>1.361535533232601</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02074041914564172</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1387137820572018</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H18" t="n">
-        <v>1.339683105657713</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I18" t="n">
-        <v>4.775891180478222</v>
+        <v>5.729671274741412</v>
       </c>
       <c r="J18" t="n">
-        <v>13.10541043550081</v>
+        <v>15.72265591454838</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L18" t="n">
-        <v>30.11853412606043</v>
+        <v>36.13342375236606</v>
       </c>
       <c r="M18" t="n">
-        <v>32.07671816794097</v>
+        <v>32.49398676858093</v>
       </c>
       <c r="N18" t="n">
-        <v>26.61922311878625</v>
+        <v>39.56133548384177</v>
       </c>
       <c r="O18" t="n">
-        <v>32.1518273778352</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P18" t="n">
-        <v>26.48824843511603</v>
+        <v>31.77814368913269</v>
       </c>
       <c r="Q18" t="n">
-        <v>17.70669260084562</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R18" t="n">
-        <v>8.612422363165571</v>
+        <v>10.33238554971203</v>
       </c>
       <c r="S18" t="n">
-        <v>2.576547662334427</v>
+        <v>3.091102910640747</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5591138846954756</v>
+        <v>0.6707729810811918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.009125906714289598</v>
+        <v>0.01094841644855047</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.116292975178816</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H19" t="n">
-        <v>1.033950270226201</v>
+        <v>1.240437635397083</v>
       </c>
       <c r="I19" t="n">
-        <v>3.497246926286577</v>
+        <v>4.195672492733689</v>
       </c>
       <c r="J19" t="n">
-        <v>8.221913345142292</v>
+        <v>9.863889049573725</v>
       </c>
       <c r="K19" t="n">
-        <v>13.51112929804789</v>
+        <v>16.20939977543425</v>
       </c>
       <c r="L19" t="n">
-        <v>17.28959378249416</v>
+        <v>20.74245101153771</v>
       </c>
       <c r="M19" t="n">
-        <v>18.22945246371204</v>
+        <v>21.87000628543137</v>
       </c>
       <c r="N19" t="n">
-        <v>17.79599682895465</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O19" t="n">
-        <v>16.43748343709302</v>
+        <v>19.72016805230453</v>
       </c>
       <c r="P19" t="n">
-        <v>14.06510674344516</v>
+        <v>16.87401053304987</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.737950857927949</v>
+        <v>11.68269024503325</v>
       </c>
       <c r="R19" t="n">
-        <v>5.228955047585671</v>
+        <v>6.273215280852725</v>
       </c>
       <c r="S19" t="n">
-        <v>2.026669394707184</v>
+        <v>2.431409966315138</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4968881666731229</v>
+        <v>0.5961203360292722</v>
       </c>
       <c r="U19" t="n">
-        <v>0.006343253191571791</v>
+        <v>0.00761004684292689</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2592552393205216</v>
+        <v>0.3110303902301771</v>
       </c>
       <c r="H20" t="n">
-        <v>2.655097719691293</v>
+        <v>3.185339983944802</v>
       </c>
       <c r="I20" t="n">
-        <v>9.994937613904419</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J20" t="n">
-        <v>22.00396436828014</v>
+        <v>26.39831558279852</v>
       </c>
       <c r="K20" t="n">
-        <v>32.97823864871783</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L20" t="n">
-        <v>40.91242117907325</v>
+        <v>49.08292830624872</v>
       </c>
       <c r="M20" t="n">
-        <v>45.52295154133957</v>
+        <v>54.61421500850463</v>
       </c>
       <c r="N20" t="n">
-        <v>46.25956049005901</v>
+        <v>55.49793010474612</v>
       </c>
       <c r="O20" t="n">
-        <v>43.68159120406557</v>
+        <v>52.4051216618948</v>
       </c>
       <c r="P20" t="n">
-        <v>37.28122748334019</v>
+        <v>44.72655890308729</v>
       </c>
       <c r="Q20" t="n">
-        <v>27.996649225174</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R20" t="n">
-        <v>16.28544192696773</v>
+        <v>19.53776275029638</v>
       </c>
       <c r="S20" t="n">
-        <v>5.907778766016392</v>
+        <v>7.087605017370168</v>
       </c>
       <c r="T20" t="n">
-        <v>1.134889810125584</v>
+        <v>1.361535533232601</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02074041914564172</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1387137820572018</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H21" t="n">
-        <v>1.339683105657713</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I21" t="n">
-        <v>4.775891180478222</v>
+        <v>5.729671274741411</v>
       </c>
       <c r="J21" t="n">
-        <v>13.10541043550081</v>
+        <v>15.72265591454837</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L21" t="n">
-        <v>30.11853412606043</v>
+        <v>27.31232273831892</v>
       </c>
       <c r="M21" t="n">
-        <v>28.37297541757256</v>
+        <v>41.31508778262809</v>
       </c>
       <c r="N21" t="n">
-        <v>30.32296586915465</v>
+        <v>39.56133548384177</v>
       </c>
       <c r="O21" t="n">
-        <v>32.1518273778352</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P21" t="n">
-        <v>26.48824843511603</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q21" t="n">
-        <v>17.70669260084562</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R21" t="n">
-        <v>8.612422363165571</v>
+        <v>10.33238554971203</v>
       </c>
       <c r="S21" t="n">
-        <v>2.576547662334427</v>
+        <v>3.091102910640746</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5591138846954756</v>
+        <v>0.6707729810811917</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009125906714289598</v>
+        <v>0.01094841644855047</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.116292975178816</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H22" t="n">
-        <v>1.033950270226201</v>
+        <v>1.240437635397082</v>
       </c>
       <c r="I22" t="n">
-        <v>3.497246926286577</v>
+        <v>4.195672492733688</v>
       </c>
       <c r="J22" t="n">
-        <v>8.221913345142292</v>
+        <v>9.863889049573723</v>
       </c>
       <c r="K22" t="n">
-        <v>13.51112929804789</v>
+        <v>16.20939977543425</v>
       </c>
       <c r="L22" t="n">
-        <v>17.28959378249416</v>
+        <v>20.7424510115377</v>
       </c>
       <c r="M22" t="n">
-        <v>18.22945246371204</v>
+        <v>21.87000628543136</v>
       </c>
       <c r="N22" t="n">
-        <v>17.79599682895465</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O22" t="n">
-        <v>16.43748343709302</v>
+        <v>19.72016805230453</v>
       </c>
       <c r="P22" t="n">
-        <v>14.06510674344516</v>
+        <v>16.87401053304986</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.737950857927949</v>
+        <v>11.68269024503325</v>
       </c>
       <c r="R22" t="n">
-        <v>5.228955047585671</v>
+        <v>6.273215280852723</v>
       </c>
       <c r="S22" t="n">
-        <v>2.026669394707184</v>
+        <v>2.431409966315137</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4968881666731229</v>
+        <v>0.5961203360292721</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006343253191571791</v>
+        <v>0.007610046842926889</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,16 +32791,16 @@
         <v>16.83596590787816</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>28.77534732975953</v>
       </c>
       <c r="L24" t="n">
         <v>38.69200558328342</v>
       </c>
       <c r="M24" t="n">
-        <v>45.15174553168937</v>
+        <v>38.63915211290613</v>
       </c>
       <c r="N24" t="n">
-        <v>44.716261250229</v>
+        <v>44.85274117258605</v>
       </c>
       <c r="O24" t="n">
         <v>42.3982471846556</v>
@@ -33037,10 +33037,10 @@
         <v>45.15174553168937</v>
       </c>
       <c r="N27" t="n">
-        <v>38.3401477538028</v>
+        <v>44.85274117258605</v>
       </c>
       <c r="O27" t="n">
-        <v>42.3982471846556</v>
+        <v>35.88565376587235</v>
       </c>
       <c r="P27" t="n">
         <v>34.02833126118561</v>
@@ -33265,7 +33265,7 @@
         <v>16.83596590787816</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>28.77534732975953</v>
       </c>
       <c r="L30" t="n">
         <v>38.69200558328342</v>
@@ -33274,10 +33274,10 @@
         <v>45.15174553168937</v>
       </c>
       <c r="N30" t="n">
-        <v>44.716261250229</v>
+        <v>44.85274117258604</v>
       </c>
       <c r="O30" t="n">
-        <v>42.3982471846556</v>
+        <v>35.88565376587233</v>
       </c>
       <c r="P30" t="n">
         <v>34.02833126118561</v>
@@ -33426,10 +33426,10 @@
         <v>42.36574690462687</v>
       </c>
       <c r="L32" t="n">
-        <v>52.55845527079118</v>
+        <v>52.55845527079119</v>
       </c>
       <c r="M32" t="n">
-        <v>58.48140841891108</v>
+        <v>58.48140841891109</v>
       </c>
       <c r="N32" t="n">
         <v>59.4276987475592</v>
@@ -33508,10 +33508,10 @@
         <v>38.69200558328342</v>
       </c>
       <c r="M33" t="n">
-        <v>45.15174553168937</v>
+        <v>38.63915211290612</v>
       </c>
       <c r="N33" t="n">
-        <v>38.34014775380277</v>
+        <v>44.85274117258604</v>
       </c>
       <c r="O33" t="n">
         <v>42.3982471846556</v>
@@ -33745,16 +33745,16 @@
         <v>38.69200558328342</v>
       </c>
       <c r="M36" t="n">
-        <v>45.15174553168937</v>
+        <v>38.63915211290613</v>
       </c>
       <c r="N36" t="n">
-        <v>44.85274117258604</v>
+        <v>44.85274117258605</v>
       </c>
       <c r="O36" t="n">
         <v>42.3982471846556</v>
       </c>
       <c r="P36" t="n">
-        <v>27.51573784240234</v>
+        <v>34.02833126118561</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -33985,7 +33985,7 @@
         <v>45.15174553168937</v>
       </c>
       <c r="N39" t="n">
-        <v>38.34014775380277</v>
+        <v>38.3401477538028</v>
       </c>
       <c r="O39" t="n">
         <v>42.3982471846556</v>
@@ -34216,13 +34216,13 @@
         <v>28.77534732975953</v>
       </c>
       <c r="L42" t="n">
-        <v>32.17941216450019</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M42" t="n">
         <v>45.15174553168937</v>
       </c>
       <c r="N42" t="n">
-        <v>44.85274117258605</v>
+        <v>38.3401477538028</v>
       </c>
       <c r="O42" t="n">
         <v>42.3982471846556</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3466320209203257</v>
+        <v>0.3330542291766306</v>
       </c>
       <c r="H44" t="n">
-        <v>3.549945184250287</v>
+        <v>3.41089162455517</v>
       </c>
       <c r="I44" t="n">
-        <v>13.36353098653087</v>
+        <v>12.84007317033207</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>28.26756138358008</v>
       </c>
       <c r="K44" t="n">
-        <v>44.09289293114392</v>
+        <v>42.36574690462687</v>
       </c>
       <c r="L44" t="n">
-        <v>54.70113264138435</v>
+        <v>52.55845527079119</v>
       </c>
       <c r="M44" t="n">
-        <v>60.86554984342619</v>
+        <v>58.48140841891109</v>
       </c>
       <c r="N44" t="n">
-        <v>61.85041807286607</v>
+        <v>59.4276987475592</v>
       </c>
       <c r="O44" t="n">
-        <v>58.40359591483958</v>
+        <v>56.11589075618407</v>
       </c>
       <c r="P44" t="n">
-        <v>49.84611789836903</v>
+        <v>47.89361447338599</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.43235864915985</v>
+        <v>35.9661098909979</v>
       </c>
       <c r="R44" t="n">
-        <v>21.77412368413643</v>
+        <v>20.92121772351654</v>
       </c>
       <c r="S44" t="n">
-        <v>7.898877176721931</v>
+        <v>7.589473247362479</v>
       </c>
       <c r="T44" t="n">
-        <v>1.517381671578727</v>
+        <v>1.457944888220701</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02773056167362605</v>
+        <v>0.02664433833413045</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1854644817593989</v>
+        <v>0.1781997227146474</v>
       </c>
       <c r="H45" t="n">
-        <v>1.791196442255248</v>
+        <v>1.721034164112516</v>
       </c>
       <c r="I45" t="n">
-        <v>6.385509569347728</v>
+        <v>6.135385189956062</v>
       </c>
       <c r="J45" t="n">
-        <v>17.52232632271585</v>
+        <v>16.83596590787816</v>
       </c>
       <c r="K45" t="n">
-        <v>29.94844660059558</v>
+        <v>28.77534732975953</v>
       </c>
       <c r="L45" t="n">
-        <v>40.26938232236424</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M45" t="n">
-        <v>46.99246978614244</v>
+        <v>45.15174553168937</v>
       </c>
       <c r="N45" t="n">
-        <v>48.23622063092368</v>
+        <v>38.3401477538028</v>
       </c>
       <c r="O45" t="n">
-        <v>44.12671816667595</v>
+        <v>42.3982471846556</v>
       </c>
       <c r="P45" t="n">
-        <v>31.10982379334009</v>
+        <v>34.02833126118561</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.67437840844539</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>11.51506668327216</v>
+        <v>11.06401436293223</v>
       </c>
       <c r="S45" t="n">
-        <v>3.444921404609886</v>
+        <v>3.309981691651452</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7475520120038929</v>
+        <v>0.7182699349770214</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01220161064206573</v>
+        <v>0.01172366596806891</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1554871913513511</v>
+        <v>0.1493966614073043</v>
       </c>
       <c r="H46" t="n">
-        <v>1.38242248310565</v>
+        <v>1.32827213505767</v>
       </c>
       <c r="I46" t="n">
-        <v>4.675923899911543</v>
+        <v>4.492765053957843</v>
       </c>
       <c r="J46" t="n">
-        <v>10.99294442854053</v>
+        <v>10.56234396149641</v>
       </c>
       <c r="K46" t="n">
-        <v>18.06478459518425</v>
+        <v>17.35717575259408</v>
       </c>
       <c r="L46" t="n">
-        <v>23.11670479418179</v>
+        <v>22.21120909686413</v>
       </c>
       <c r="M46" t="n">
-        <v>24.37332400428498</v>
+        <v>23.41860575132862</v>
       </c>
       <c r="N46" t="n">
-        <v>23.79378083652087</v>
+        <v>22.86176364971959</v>
       </c>
       <c r="O46" t="n">
-        <v>21.9774077375528</v>
+        <v>21.1165390141888</v>
       </c>
       <c r="P46" t="n">
-        <v>18.80546903398523</v>
+        <v>18.06884712147978</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.01993199579359</v>
+        <v>12.50993316566073</v>
       </c>
       <c r="R46" t="n">
-        <v>6.991269531125296</v>
+        <v>6.717417157459335</v>
       </c>
       <c r="S46" t="n">
-        <v>2.709717689277637</v>
+        <v>2.603576362889111</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6643543630466819</v>
+        <v>0.638331189649391</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008481119528255525</v>
+        <v>0.00814890880403479</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.799631206432593</v>
       </c>
       <c r="L17" t="n">
-        <v>2.600378746450325</v>
+        <v>10.77088587362577</v>
       </c>
       <c r="M17" t="n">
-        <v>8.091688641907758</v>
+        <v>17.18295210907283</v>
       </c>
       <c r="N17" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O17" t="n">
-        <v>6.904982159004737</v>
+        <v>15.01416230587071</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.151197092856002</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>4.473289392418835</v>
       </c>
       <c r="L18" t="n">
-        <v>7.603447411830871</v>
+        <v>13.61833703813651</v>
       </c>
       <c r="M18" t="n">
-        <v>8.979937655612986</v>
+        <v>9.397206256252952</v>
       </c>
       <c r="N18" t="n">
-        <v>5.276194905244587</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O18" t="n">
-        <v>8.979937655612986</v>
+        <v>16.42269341674559</v>
       </c>
       <c r="P18" t="n">
-        <v>4.717407230287364</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O19" t="n">
-        <v>8.617111891749834</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>8.979937655612986</v>
+        <v>17.48221404725768</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.799631206432586</v>
       </c>
       <c r="L20" t="n">
-        <v>8.617111891749834</v>
+        <v>10.77088587362579</v>
       </c>
       <c r="M20" t="n">
-        <v>8.979937655612986</v>
+        <v>17.18295210907282</v>
       </c>
       <c r="N20" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O20" t="n">
-        <v>8.979937655612986</v>
+        <v>15.0141623058707</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>7.151197092855995</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4.473289392418831</v>
       </c>
       <c r="L21" t="n">
-        <v>7.603447411830871</v>
+        <v>4.797236024089361</v>
       </c>
       <c r="M21" t="n">
-        <v>5.276194905244585</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="N21" t="n">
-        <v>8.979937655612986</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O21" t="n">
-        <v>8.979937655612986</v>
+        <v>16.42269341674558</v>
       </c>
       <c r="P21" t="n">
-        <v>4.717407230287364</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>8.617111891749834</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>8.979937655612986</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.6010854422309855</v>
       </c>
       <c r="O22" t="n">
-        <v>8.979937655612986</v>
+        <v>16.8811286050267</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L24" t="n">
         <v>16.17691886905386</v>
       </c>
       <c r="M24" t="n">
-        <v>22.05496501936139</v>
+        <v>15.54237160057816</v>
       </c>
       <c r="N24" t="n">
-        <v>23.37323303668733</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O24" t="n">
         <v>19.22635746243337</v>
@@ -36685,10 +36685,10 @@
         <v>22.05496501936139</v>
       </c>
       <c r="N27" t="n">
-        <v>16.99711954026114</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O27" t="n">
-        <v>19.22635746243337</v>
+        <v>12.71376404365013</v>
       </c>
       <c r="P27" t="n">
         <v>12.25749005635694</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36764,13 +36764,13 @@
         <v>23.50971295904438</v>
       </c>
       <c r="N28" t="n">
-        <v>22.26737636559685</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>20.15451369147765</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Q28" t="n">
         <v>23.50971295904438</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L30" t="n">
         <v>16.17691886905386</v>
@@ -36922,10 +36922,10 @@
         <v>22.05496501936139</v>
       </c>
       <c r="N30" t="n">
-        <v>23.37323303668733</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O30" t="n">
-        <v>19.22635746243337</v>
+        <v>12.71376404365012</v>
       </c>
       <c r="P30" t="n">
         <v>12.25749005635694</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36998,19 +36998,19 @@
         <v>23.50971295904438</v>
       </c>
       <c r="M31" t="n">
-        <v>20.44696289264056</v>
+        <v>22.55982556675976</v>
       </c>
       <c r="N31" t="n">
-        <v>2.112862674119199</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>6.601146109817527</v>
       </c>
       <c r="L32" t="n">
-        <v>14.24641283816825</v>
+        <v>14.24641283816826</v>
       </c>
       <c r="M32" t="n">
         <v>21.05014551947927</v>
@@ -37156,10 +37156,10 @@
         <v>16.17691886905386</v>
       </c>
       <c r="M33" t="n">
-        <v>22.05496501936139</v>
+        <v>15.54237160057814</v>
       </c>
       <c r="N33" t="n">
-        <v>16.99711954026111</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O33" t="n">
         <v>19.22635746243337</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.15451369147763</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2924492011629134</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="M34" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="N34" t="n">
-        <v>2.112862674119199</v>
+        <v>22.55982556675976</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>16.17691886905386</v>
       </c>
       <c r="M36" t="n">
-        <v>22.05496501936139</v>
+        <v>15.54237160057816</v>
       </c>
       <c r="N36" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O36" t="n">
         <v>19.22635746243337</v>
       </c>
       <c r="P36" t="n">
-        <v>5.744896637573681</v>
+        <v>12.25749005635694</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2924492011629134</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="M37" t="n">
-        <v>23.50971295904437</v>
+        <v>0.8431658598427987</v>
       </c>
       <c r="N37" t="n">
         <v>2.112862674119199</v>
       </c>
       <c r="O37" t="n">
-        <v>20.15451369147763</v>
+        <v>19.60379703279777</v>
       </c>
       <c r="P37" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>22.05496501936139</v>
       </c>
       <c r="N39" t="n">
-        <v>16.99711954026111</v>
+        <v>16.99711954026114</v>
       </c>
       <c r="O39" t="n">
         <v>19.22635746243337</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37709,19 +37709,19 @@
         <v>0.2924492011629134</v>
       </c>
       <c r="M40" t="n">
-        <v>23.50971295904437</v>
+        <v>0.8431658598427987</v>
       </c>
       <c r="N40" t="n">
-        <v>23.50971295904437</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.26737636559684</v>
+        <v>21.42421050575405</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>6.376113496426193</v>
       </c>
       <c r="L42" t="n">
-        <v>9.664325450270626</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M42" t="n">
         <v>22.05496501936139</v>
       </c>
       <c r="N42" t="n">
-        <v>23.50971295904438</v>
+        <v>16.99711954026114</v>
       </c>
       <c r="O42" t="n">
         <v>19.22635746243337</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>23.50971295904438</v>
+        <v>19.31134783163485</v>
       </c>
       <c r="L43" t="n">
         <v>0.2924492011629134</v>
@@ -37952,13 +37952,13 @@
         <v>2.112862674119199</v>
       </c>
       <c r="O43" t="n">
-        <v>19.31134783163485</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="P43" t="n">
         <v>23.50971295904438</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>8.328292136334582</v>
+        <v>6.601146109817527</v>
       </c>
       <c r="L44" t="n">
-        <v>16.38909020876143</v>
+        <v>14.24641283816826</v>
       </c>
       <c r="M44" t="n">
-        <v>23.43428694399438</v>
+        <v>21.05014551947927</v>
       </c>
       <c r="N44" t="n">
-        <v>24.57079523842005</v>
+        <v>22.14807591311317</v>
       </c>
       <c r="O44" t="n">
-        <v>21.01263655881548</v>
+        <v>18.72493140015997</v>
       </c>
       <c r="P44" t="n">
-        <v>12.27075608813773</v>
+        <v>10.31825266315469</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.30768404456181</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.549212767262244</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L45" t="n">
-        <v>17.75429560813468</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M45" t="n">
-        <v>23.89568927381447</v>
+        <v>22.05496501936139</v>
       </c>
       <c r="N45" t="n">
-        <v>26.89319241738202</v>
+        <v>16.99711954026114</v>
       </c>
       <c r="O45" t="n">
-        <v>20.95482844445373</v>
+        <v>19.22635746243337</v>
       </c>
       <c r="P45" t="n">
-        <v>9.338982588511431</v>
+        <v>12.25749005635694</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9273401194668907</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,22 +38180,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>27.10214433847837</v>
+        <v>0.2924492011629134</v>
       </c>
       <c r="M46" t="n">
-        <v>27.10214433847837</v>
+        <v>22.26737636559685</v>
       </c>
       <c r="N46" t="n">
-        <v>3.044879860920474</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>22.96222834266987</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.10214433847837</v>
+        <v>23.50971295904438</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
